--- a/English.xlsx
+++ b/English.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F886C-61A8-41D7-A421-5EBDFA8A8E0B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7615B-87A1-49C6-AC51-D9F5F3583AB0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Broker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,22 @@
   </si>
   <si>
     <t>发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actuator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -550,6 +566,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
